--- a/docs/SEAME_material_list.xlsx
+++ b/docs/SEAME_material_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Important_Docs/42/SEA-ME_Team6_2025-26/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{33C40366-988C-AC48-AEAE-C2E55564423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5186C8B7-9625-E541-B204-BFA9B95E08DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26280" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -315,9 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center" wrapText="1"/>
@@ -673,8 +670,8 @@
   </sheetPr>
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -856,7 +853,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
@@ -867,7 +864,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
@@ -881,7 +878,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
@@ -895,13 +892,13 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E18" t="s">
@@ -909,7 +906,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
@@ -923,7 +920,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" t="s">
@@ -937,7 +934,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
@@ -951,13 +948,13 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="4"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="4"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="4"/>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
